--- a/2014_coleta_tipos_residuos.xlsx
+++ b/2014_coleta_tipos_residuos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C4526-29C5-46F2-B78B-A72F7B3247F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23C50F-7EB7-41C3-B135-77601BC91AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
